--- a/.temp/DateEvalSample.xlsx
+++ b/.temp/DateEvalSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.LTWB\.temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC3D1D4-50DA-4215-BDA6-ABD69DBDAC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE596B8-3EC3-41BD-9FD9-8E92676DC673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1968" yWindow="2004" windowWidth="17280" windowHeight="8880" xr2:uid="{D3348046-1DED-4889-9DA1-6C3BCF38E244}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
